--- a/team_a.xlsx
+++ b/team_a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>type</t>
   </si>
@@ -34,82 +34,70 @@
     <t>reserved</t>
   </si>
   <si>
-    <t>Abu Dhabi</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Chirag Suri</t>
-  </si>
-  <si>
-    <t>V Aravind</t>
-  </si>
-  <si>
-    <t>DDP D'Silva</t>
-  </si>
-  <si>
-    <t>J Figy John</t>
-  </si>
-  <si>
-    <t>Junaid Siddique (2)</t>
-  </si>
-  <si>
-    <t>Rohan Mustafa</t>
-  </si>
-  <si>
-    <t>Ahmed Raza</t>
-  </si>
-  <si>
-    <t>KP Meiyappan</t>
-  </si>
-  <si>
-    <t>Basil Hameed</t>
-  </si>
-  <si>
-    <t>Muhammad Usman</t>
-  </si>
-  <si>
-    <t>Shaiman Anwar</t>
-  </si>
-  <si>
-    <t>Mohammad Naveed</t>
-  </si>
-  <si>
-    <t>Mohammad Boota</t>
-  </si>
-  <si>
-    <t>Amir Hayat</t>
-  </si>
-  <si>
-    <t>CP Rizwan</t>
-  </si>
-  <si>
-    <t>Ghulam Shabber</t>
-  </si>
-  <si>
-    <t>Zahoor Khan</t>
-  </si>
-  <si>
-    <t>Ashfaq Ahmed</t>
-  </si>
-  <si>
-    <t>Imran Haider</t>
-  </si>
-  <si>
-    <t>Zawar Farid</t>
-  </si>
-  <si>
-    <t>Waheed Ahmed</t>
-  </si>
-  <si>
-    <t>Fahad Nawaz</t>
-  </si>
-  <si>
-    <t>Sultan Ahmed (2)</t>
-  </si>
-  <si>
-    <t>Qadeer Ahmed</t>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>S Dhawan</t>
+  </si>
+  <si>
+    <t>Shubman Gill</t>
+  </si>
+  <si>
+    <t>V Kohli</t>
+  </si>
+  <si>
+    <t>SS Iyer</t>
+  </si>
+  <si>
+    <t>KL Rahul</t>
+  </si>
+  <si>
+    <t>HH Pandya</t>
+  </si>
+  <si>
+    <t>RA Jadeja</t>
+  </si>
+  <si>
+    <t>JJ Bumrah</t>
+  </si>
+  <si>
+    <t>T Natarajan</t>
+  </si>
+  <si>
+    <t>SN Thakur</t>
+  </si>
+  <si>
+    <t>Kuldeep Yadav</t>
+  </si>
+  <si>
+    <t>RG Sharma</t>
+  </si>
+  <si>
+    <t>MK Pandey</t>
+  </si>
+  <si>
+    <t>PP Shaw</t>
+  </si>
+  <si>
+    <t>RR Pant</t>
+  </si>
+  <si>
+    <t>Mohammed Shami</t>
+  </si>
+  <si>
+    <t>NA Saini</t>
+  </si>
+  <si>
+    <t>MA Agarwal</t>
+  </si>
+  <si>
+    <t>KM Jadhav</t>
+  </si>
+  <si>
+    <t>YS Chahal</t>
   </si>
 </sst>
 </file>
@@ -467,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -563,7 +551,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -571,7 +559,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -579,7 +567,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -655,38 +643,6 @@
       </c>
       <c r="B23" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/team_a.xlsx
+++ b/team_a.xlsx
@@ -14,90 +14,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
-  <si>
-    <t>type</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="25">
+  <si>
+    <t>team</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>bowler</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>player</t>
-  </si>
-  <si>
-    <t>reserved</t>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Shikhar Dhawan</t>
+  </si>
+  <si>
+    <t>Shubman Gill</t>
+  </si>
+  <si>
+    <t>Virat Kohli</t>
+  </si>
+  <si>
+    <t>Shreyas Iyer</t>
+  </si>
+  <si>
+    <t>KL Rahul</t>
+  </si>
+  <si>
+    <t>Hardik Pandya</t>
+  </si>
+  <si>
+    <t>Ravindra Jadeja</t>
+  </si>
+  <si>
+    <t>Shardul Thakur</t>
+  </si>
+  <si>
+    <t>Kuldeep Yadav</t>
+  </si>
+  <si>
+    <t>Jasprit Bumrah</t>
+  </si>
+  <si>
+    <t>T Natarajan</t>
+  </si>
+  <si>
+    <t>Mayank Agarwal</t>
+  </si>
+  <si>
+    <t>Navdeep Saini</t>
+  </si>
+  <si>
+    <t>Mohammed Shami</t>
+  </si>
+  <si>
+    <t>Yuzvendra Chahal</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>Kolkata</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>S Dhawan</t>
-  </si>
-  <si>
-    <t>Shubman Gill</t>
-  </si>
-  <si>
-    <t>V Kohli</t>
-  </si>
-  <si>
-    <t>SS Iyer</t>
-  </si>
-  <si>
-    <t>KL Rahul</t>
-  </si>
-  <si>
-    <t>HH Pandya</t>
-  </si>
-  <si>
-    <t>RA Jadeja</t>
-  </si>
-  <si>
-    <t>JJ Bumrah</t>
-  </si>
-  <si>
-    <t>T Natarajan</t>
-  </si>
-  <si>
-    <t>SN Thakur</t>
-  </si>
-  <si>
-    <t>Kuldeep Yadav</t>
-  </si>
-  <si>
-    <t>RG Sharma</t>
-  </si>
-  <si>
-    <t>MK Pandey</t>
-  </si>
-  <si>
-    <t>PP Shaw</t>
-  </si>
-  <si>
-    <t>RR Pant</t>
-  </si>
-  <si>
-    <t>Mohammed Shami</t>
-  </si>
-  <si>
-    <t>NA Saini</t>
-  </si>
-  <si>
-    <t>MA Agarwal</t>
-  </si>
-  <si>
-    <t>KM Jadhav</t>
-  </si>
-  <si>
-    <t>YS Chahal</t>
   </si>
 </sst>
 </file>
@@ -455,194 +446,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>11413</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>11411</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>11412</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>11409</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>11410</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
+      <c r="F16" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/team_a.xlsx
+++ b/team_a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
   <si>
     <t>team</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>location</t>
+  </si>
+  <si>
+    <t>position</t>
   </si>
   <si>
     <t>India</t>
@@ -446,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,254 +474,302 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>25213</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>25211</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>25212</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>25209</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>25210</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>11413</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>11411</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>11412</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>11409</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>11410</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
